--- a/fio/format_xslx/xlsx/performance.xlsx
+++ b/fio/format_xslx/xlsx/performance.xlsx
@@ -59,22 +59,22 @@
     <t>sdn</t>
   </si>
   <si>
-    <t>IOPS(randwrite_04k)</t>
+    <t>IOPS(read_64k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_08k)</t>
+    <t>IOPS(read_512k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_64k)</t>
+    <t>IOPS(read_1m)</t>
   </si>
   <si>
-    <t>BW(randwrite_04k)</t>
+    <t>BW(read_64k)</t>
   </si>
   <si>
-    <t>BW(randwrite_08k)</t>
+    <t>BW(read_512k)</t>
   </si>
   <si>
-    <t>BW(randwrite_64k)</t>
+    <t>BW(read_1m)</t>
   </si>
 </sst>
 </file>
@@ -180,7 +180,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>randwrite_04k</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -236,43 +236,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>63800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63700</c:v>
+                  <c:v>8316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>389</c:v>
+                  <c:v>3213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>389</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>395</c:v>
+                  <c:v>3253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>395</c:v>
+                  <c:v>3204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>418</c:v>
+                  <c:v>3237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>385</c:v>
+                  <c:v>3408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>404</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>428</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>425</c:v>
+                  <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>376</c:v>
+                  <c:v>3240</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>386</c:v>
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,7 +282,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>randwrite_08k</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -338,43 +338,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>42900</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43100</c:v>
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>399</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>403</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>404</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>422</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>385</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>431</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>429</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>385</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>390</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,7 +384,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -440,43 +440,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7208</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7246</c:v>
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>401</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>383</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>412</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>425</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>424</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>396</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>398</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,7 +593,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>randwrite_04k</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -616,10 +616,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>63800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63700</c:v>
+                  <c:v>8316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,7 +629,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>randwrite_08k</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -652,10 +652,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42900</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43100</c:v>
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,7 +665,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -688,10 +688,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7208</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7246</c:v>
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +808,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>randwrite_04k</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -858,37 +858,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>389</c:v>
+                  <c:v>3213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>395</c:v>
+                  <c:v>3253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>395</c:v>
+                  <c:v>3204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>418</c:v>
+                  <c:v>3237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>385</c:v>
+                  <c:v>3408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>404</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>428</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>425</c:v>
+                  <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>376</c:v>
+                  <c:v>3240</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>386</c:v>
+                  <c:v>3246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +898,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>randwrite_08k</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -948,37 +948,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>399</c:v>
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>403</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>404</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>422</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>385</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>431</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>429</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>385</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>390</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +988,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1038,37 +1038,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>383</c:v>
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>390</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>402</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>375</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>412</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>424</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>396</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>398</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +1185,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>randwrite_04k</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1241,43 +1241,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>249</c:v>
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.559</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.56</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.583</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.58</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.676</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.543</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.62</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.716</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.702</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.505</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.547</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,7 +1287,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>randwrite_08k</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1343,43 +1343,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>337</c:v>
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.195</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.195</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.23</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.235</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.384</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.083</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.274</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.45</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.439</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.087</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.125</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,7 +1389,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1445,43 +1445,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>453</c:v>
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.1</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.4</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.2</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.7</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.5</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.8</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.6</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.5</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.8</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.9</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,7 +1598,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>randwrite_04k</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1621,10 +1621,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>249</c:v>
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +1634,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>randwrite_08k</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1657,10 +1657,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>337</c:v>
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,7 +1670,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1693,10 +1693,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>453</c:v>
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1813,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>randwrite_04k</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1863,37 +1863,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.559</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.56</c:v>
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.583</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.58</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.676</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.543</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.62</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.716</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.702</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.505</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.547</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,7 +1903,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>randwrite_08k</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1953,37 +1953,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.195</c:v>
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.23</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.235</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.384</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.083</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.274</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.45</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.439</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.087</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.125</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +1993,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2043,37 +2043,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>25.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.4</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.2</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.7</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.5</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.8</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.6</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.5</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.8</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.9</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,43 +2689,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>63800</v>
+        <v>8316</v>
       </c>
       <c r="C2" s="3">
-        <v>63700</v>
+        <v>8299</v>
       </c>
       <c r="D2" s="3">
-        <v>389</v>
+        <v>3213</v>
       </c>
       <c r="E2" s="3">
-        <v>389</v>
+        <v>3227</v>
       </c>
       <c r="F2" s="3">
-        <v>395</v>
+        <v>3253</v>
       </c>
       <c r="G2" s="3">
-        <v>395</v>
+        <v>3204</v>
       </c>
       <c r="H2" s="3">
-        <v>418</v>
+        <v>3237</v>
       </c>
       <c r="I2" s="3">
-        <v>385</v>
+        <v>3408</v>
       </c>
       <c r="J2" s="3">
-        <v>404</v>
+        <v>3300</v>
       </c>
       <c r="K2" s="3">
-        <v>428</v>
+        <v>3150</v>
       </c>
       <c r="L2" s="3">
-        <v>425</v>
+        <v>3247</v>
       </c>
       <c r="M2" s="3">
-        <v>376</v>
+        <v>3240</v>
       </c>
       <c r="N2" s="3">
-        <v>386</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2733,43 +2733,43 @@
         <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>42900</v>
+        <v>1043</v>
       </c>
       <c r="C3" s="3">
-        <v>43100</v>
+        <v>927</v>
       </c>
       <c r="D3" s="3">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E3" s="3">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F3" s="3">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G3" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H3" s="3">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="I3" s="3">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="J3" s="3">
         <v>409</v>
       </c>
       <c r="K3" s="3">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="L3" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="M3" s="3">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="N3" s="3">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2777,43 +2777,43 @@
         <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>7208</v>
+        <v>520</v>
       </c>
       <c r="C4" s="3">
-        <v>7246</v>
+        <v>520</v>
       </c>
       <c r="D4" s="3">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="E4" s="3">
-        <v>383</v>
+        <v>202</v>
       </c>
       <c r="F4" s="3">
-        <v>390</v>
+        <v>203</v>
       </c>
       <c r="G4" s="3">
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="H4" s="3">
-        <v>410</v>
+        <v>201</v>
       </c>
       <c r="I4" s="3">
-        <v>375</v>
+        <v>213</v>
       </c>
       <c r="J4" s="3">
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="K4" s="3">
-        <v>425</v>
+        <v>197</v>
       </c>
       <c r="L4" s="3">
-        <v>424</v>
+        <v>203</v>
       </c>
       <c r="M4" s="3">
-        <v>396</v>
+        <v>203</v>
       </c>
       <c r="N4" s="3">
-        <v>398</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2879,43 +2879,43 @@
         <v>17</v>
       </c>
       <c r="B2" s="3">
-        <v>249</v>
+        <v>520</v>
       </c>
       <c r="C2" s="3">
-        <v>249</v>
+        <v>519</v>
       </c>
       <c r="D2" s="3">
-        <v>1.559</v>
+        <v>201</v>
       </c>
       <c r="E2" s="3">
-        <v>1.56</v>
+        <v>202</v>
       </c>
       <c r="F2" s="3">
-        <v>1.583</v>
+        <v>203</v>
       </c>
       <c r="G2" s="3">
-        <v>1.58</v>
+        <v>200</v>
       </c>
       <c r="H2" s="3">
-        <v>1.676</v>
+        <v>202</v>
       </c>
       <c r="I2" s="3">
-        <v>1.543</v>
+        <v>213</v>
       </c>
       <c r="J2" s="3">
-        <v>1.62</v>
+        <v>206</v>
       </c>
       <c r="K2" s="3">
-        <v>1.716</v>
+        <v>197</v>
       </c>
       <c r="L2" s="3">
-        <v>1.702</v>
+        <v>203</v>
       </c>
       <c r="M2" s="3">
-        <v>1.505</v>
+        <v>203</v>
       </c>
       <c r="N2" s="3">
-        <v>1.547</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2923,43 +2923,43 @@
         <v>18</v>
       </c>
       <c r="B3" s="3">
-        <v>335</v>
+        <v>522</v>
       </c>
       <c r="C3" s="3">
-        <v>337</v>
+        <v>464</v>
       </c>
       <c r="D3" s="3">
-        <v>3.195</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3">
-        <v>3.195</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3">
-        <v>3.23</v>
+        <v>204</v>
       </c>
       <c r="G3" s="3">
-        <v>3.235</v>
+        <v>200</v>
       </c>
       <c r="H3" s="3">
-        <v>3.384</v>
+        <v>203</v>
       </c>
       <c r="I3" s="3">
-        <v>3.083</v>
+        <v>213</v>
       </c>
       <c r="J3" s="3">
-        <v>3.274</v>
+        <v>205</v>
       </c>
       <c r="K3" s="3">
-        <v>3.45</v>
+        <v>197</v>
       </c>
       <c r="L3" s="3">
-        <v>3.439</v>
+        <v>203</v>
       </c>
       <c r="M3" s="3">
-        <v>3.087</v>
+        <v>203</v>
       </c>
       <c r="N3" s="3">
-        <v>3.125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2967,43 +2967,43 @@
         <v>19</v>
       </c>
       <c r="B4" s="3">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="C4" s="3">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="D4" s="3">
-        <v>25.1</v>
+        <v>201</v>
       </c>
       <c r="E4" s="3">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="F4" s="3">
-        <v>24.4</v>
+        <v>203</v>
       </c>
       <c r="G4" s="3">
-        <v>25.2</v>
+        <v>201</v>
       </c>
       <c r="H4" s="3">
-        <v>25.7</v>
+        <v>202</v>
       </c>
       <c r="I4" s="3">
-        <v>23.5</v>
+        <v>213</v>
       </c>
       <c r="J4" s="3">
-        <v>25.8</v>
+        <v>206</v>
       </c>
       <c r="K4" s="3">
-        <v>26.6</v>
+        <v>197</v>
       </c>
       <c r="L4" s="3">
-        <v>26.5</v>
+        <v>203</v>
       </c>
       <c r="M4" s="3">
-        <v>24.8</v>
+        <v>203</v>
       </c>
       <c r="N4" s="3">
-        <v>24.9</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/fio/format_xslx/xlsx/performance.xlsx
+++ b/fio/format_xslx/xlsx/performance.xlsx
@@ -236,43 +236,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>8316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8299</c:v>
+                  <c:v>7861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3213</c:v>
+                  <c:v>3293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3227</c:v>
+                  <c:v>3232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3253</c:v>
+                  <c:v>3216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3204</c:v>
+                  <c:v>3245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3237</c:v>
+                  <c:v>3248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3408</c:v>
+                  <c:v>3266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3300</c:v>
+                  <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3254</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3150</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3240</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>3246</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,43 +338,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>927</c:v>
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>402</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>407</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>425</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>409</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>405</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>406</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,43 +440,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>520</c:v>
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>203</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,10 +616,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8299</c:v>
+                  <c:v>7861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,10 +652,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>927</c:v>
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,10 +688,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>520</c:v>
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,37 +858,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3213</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3227</c:v>
+                  <c:v>3293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3253</c:v>
+                  <c:v>3216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3204</c:v>
+                  <c:v>3245</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3237</c:v>
+                  <c:v>3248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3408</c:v>
+                  <c:v>3266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3300</c:v>
+                  <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3254</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3150</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>3247</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3240</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>3246</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,37 +948,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>402</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>407</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>425</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>409</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>405</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>406</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,37 +1038,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>203</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>203</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,43 +1241,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>519</c:v>
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>203</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,43 +1343,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>464</c:v>
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>204</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,43 +1445,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>521</c:v>
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>201</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>206</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>197</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>203</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,10 +1621,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>519</c:v>
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,10 +1657,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>464</c:v>
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,10 +1693,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>521</c:v>
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,37 +1863,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>203</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>203</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,37 +1953,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>204</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,37 +2043,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>206</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>197</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>203</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>203</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,43 +2689,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>8316</v>
+        <v>7861</v>
       </c>
       <c r="C2" s="3">
-        <v>8299</v>
+        <v>7824</v>
       </c>
       <c r="D2" s="3">
-        <v>3213</v>
+        <v>3293</v>
       </c>
       <c r="E2" s="3">
-        <v>3227</v>
+        <v>3232</v>
       </c>
       <c r="F2" s="3">
-        <v>3253</v>
+        <v>3216</v>
       </c>
       <c r="G2" s="3">
-        <v>3204</v>
+        <v>3245</v>
       </c>
       <c r="H2" s="3">
-        <v>3237</v>
+        <v>3248</v>
       </c>
       <c r="I2" s="3">
-        <v>3408</v>
+        <v>3266</v>
       </c>
       <c r="J2" s="3">
-        <v>3300</v>
+        <v>3233</v>
       </c>
       <c r="K2" s="3">
+        <v>3201</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3254</v>
+      </c>
+      <c r="M2" s="3">
         <v>3150</v>
       </c>
-      <c r="L2" s="3">
-        <v>3247</v>
-      </c>
-      <c r="M2" s="3">
-        <v>3240</v>
-      </c>
       <c r="N2" s="3">
-        <v>3246</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2733,43 +2733,43 @@
         <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C3" s="3">
-        <v>927</v>
+        <v>1042</v>
       </c>
       <c r="D3" s="3">
+        <v>412</v>
+      </c>
+      <c r="E3" s="3">
+        <v>403</v>
+      </c>
+      <c r="F3" s="3">
         <v>402</v>
       </c>
-      <c r="E3" s="3">
-        <v>400</v>
-      </c>
-      <c r="F3" s="3">
-        <v>407</v>
-      </c>
       <c r="G3" s="3">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H3" s="3">
         <v>405</v>
       </c>
       <c r="I3" s="3">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="J3" s="3">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K3" s="3">
+        <v>400</v>
+      </c>
+      <c r="L3" s="3">
+        <v>404</v>
+      </c>
+      <c r="M3" s="3">
         <v>394</v>
       </c>
-      <c r="L3" s="3">
-        <v>405</v>
-      </c>
-      <c r="M3" s="3">
-        <v>405</v>
-      </c>
       <c r="N3" s="3">
-        <v>406</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2777,43 +2777,43 @@
         <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C4" s="3">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D4" s="3">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E4" s="3">
         <v>202</v>
       </c>
       <c r="F4" s="3">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3">
         <v>203</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
+        <v>203</v>
+      </c>
+      <c r="I4" s="3">
+        <v>204</v>
+      </c>
+      <c r="J4" s="3">
+        <v>201</v>
+      </c>
+      <c r="K4" s="3">
         <v>200</v>
-      </c>
-      <c r="H4" s="3">
-        <v>201</v>
-      </c>
-      <c r="I4" s="3">
-        <v>213</v>
-      </c>
-      <c r="J4" s="3">
-        <v>206</v>
-      </c>
-      <c r="K4" s="3">
-        <v>197</v>
       </c>
       <c r="L4" s="3">
         <v>203</v>
       </c>
       <c r="M4" s="3">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N4" s="3">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2879,43 +2879,43 @@
         <v>17</v>
       </c>
       <c r="B2" s="3">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="C2" s="3">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="D2" s="3">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E2" s="3">
         <v>202</v>
       </c>
       <c r="F2" s="3">
+        <v>201</v>
+      </c>
+      <c r="G2" s="3">
         <v>203</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
+        <v>203</v>
+      </c>
+      <c r="I2" s="3">
+        <v>204</v>
+      </c>
+      <c r="J2" s="3">
+        <v>202</v>
+      </c>
+      <c r="K2" s="3">
         <v>200</v>
-      </c>
-      <c r="H2" s="3">
-        <v>202</v>
-      </c>
-      <c r="I2" s="3">
-        <v>213</v>
-      </c>
-      <c r="J2" s="3">
-        <v>206</v>
-      </c>
-      <c r="K2" s="3">
-        <v>197</v>
       </c>
       <c r="L2" s="3">
         <v>203</v>
       </c>
       <c r="M2" s="3">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N2" s="3">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2923,43 +2923,43 @@
         <v>18</v>
       </c>
       <c r="B3" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C3" s="3">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="D3" s="3">
+        <v>206</v>
+      </c>
+      <c r="E3" s="3">
+        <v>202</v>
+      </c>
+      <c r="F3" s="3">
         <v>201</v>
       </c>
-      <c r="E3" s="3">
-        <v>200</v>
-      </c>
-      <c r="F3" s="3">
-        <v>204</v>
-      </c>
       <c r="G3" s="3">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H3" s="3">
         <v>203</v>
       </c>
       <c r="I3" s="3">
+        <v>205</v>
+      </c>
+      <c r="J3" s="3">
+        <v>202</v>
+      </c>
+      <c r="K3" s="3">
+        <v>200</v>
+      </c>
+      <c r="L3" s="3">
+        <v>202</v>
+      </c>
+      <c r="M3" s="3">
+        <v>197</v>
+      </c>
+      <c r="N3" s="3">
         <v>213</v>
-      </c>
-      <c r="J3" s="3">
-        <v>205</v>
-      </c>
-      <c r="K3" s="3">
-        <v>197</v>
-      </c>
-      <c r="L3" s="3">
-        <v>203</v>
-      </c>
-      <c r="M3" s="3">
-        <v>203</v>
-      </c>
-      <c r="N3" s="3">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2967,43 +2967,43 @@
         <v>19</v>
       </c>
       <c r="B4" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C4" s="3">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D4" s="3">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E4" s="3">
         <v>202</v>
       </c>
       <c r="F4" s="3">
+        <v>201</v>
+      </c>
+      <c r="G4" s="3">
         <v>203</v>
       </c>
-      <c r="G4" s="3">
-        <v>201</v>
-      </c>
       <c r="H4" s="3">
+        <v>203</v>
+      </c>
+      <c r="I4" s="3">
+        <v>205</v>
+      </c>
+      <c r="J4" s="3">
         <v>202</v>
       </c>
-      <c r="I4" s="3">
-        <v>213</v>
-      </c>
-      <c r="J4" s="3">
-        <v>206</v>
-      </c>
       <c r="K4" s="3">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L4" s="3">
         <v>203</v>
       </c>
       <c r="M4" s="3">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N4" s="3">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/fio/format_xslx/xlsx/performance.xlsx
+++ b/fio/format_xslx/xlsx/performance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>disk</t>
   </si>
@@ -59,6 +59,33 @@
     <t>sdn</t>
   </si>
   <si>
+    <t>IOPS(randwrite_04k)</t>
+  </si>
+  <si>
+    <t>IOPS(randwrite_08k)</t>
+  </si>
+  <si>
+    <t>IOPS(randwrite_64k)</t>
+  </si>
+  <si>
+    <t>IOPS(randread_04k)</t>
+  </si>
+  <si>
+    <t>IOPS(randread_08k)</t>
+  </si>
+  <si>
+    <t>IOPS(randread_64k)</t>
+  </si>
+  <si>
+    <t>IOPS(write_64k)</t>
+  </si>
+  <si>
+    <t>IOPS(write_512k)</t>
+  </si>
+  <si>
+    <t>IOPS(write_1m)</t>
+  </si>
+  <si>
     <t>IOPS(read_64k)</t>
   </si>
   <si>
@@ -66,6 +93,33 @@
   </si>
   <si>
     <t>IOPS(read_1m)</t>
+  </si>
+  <si>
+    <t>BW(randwrite_04k)</t>
+  </si>
+  <si>
+    <t>BW(randwrite_08k)</t>
+  </si>
+  <si>
+    <t>BW(randwrite_64k)</t>
+  </si>
+  <si>
+    <t>BW(randread_04k)</t>
+  </si>
+  <si>
+    <t>BW(randread_08k)</t>
+  </si>
+  <si>
+    <t>BW(randread_64k)</t>
+  </si>
+  <si>
+    <t>BW(write_64k)</t>
+  </si>
+  <si>
+    <t>BW(write_512k)</t>
+  </si>
+  <si>
+    <t>BW(write_1m)</t>
   </si>
   <si>
     <t>BW(read_64k)</t>
@@ -180,7 +234,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>read_64k</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -236,43 +290,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7861</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7824</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3293</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3232</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3248</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3266</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3254</c:v>
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3150</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3400</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,7 +336,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>read_512k</c:v>
+            <c:v>randwrite_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -338,43 +392,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>404</c:v>
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>394</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>426</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,7 +438,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>read_1m</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -440,43 +494,961 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>203</c:v>
+                  <c:v>6220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>203</c:v>
+                <c:pt idx="10">
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>randread_04k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>68700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>randread_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>randread_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>write_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>write_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>write_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>read_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3362</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>read_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>read_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,7 +1565,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>read_64k</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -616,10 +1588,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7861</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7824</c:v>
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,7 +1601,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>read_512k</c:v>
+            <c:v>randwrite_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -652,10 +1624,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1042</c:v>
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,7 +1637,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>read_1m</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -688,7 +1660,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>519</c:v>
+                  <c:v>6220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>randread_04k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>68700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>randread_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>randread_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>write_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>write_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>write_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$10:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>read_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$11:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>read_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$12:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>read_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$B$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>521</c:v>
@@ -808,7 +2104,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>read_64k</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -858,37 +2154,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3293</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3216</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3245</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3266</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3254</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400</c:v>
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +2194,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>read_512k</c:v>
+            <c:v>randwrite_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -948,37 +2244,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>426</c:v>
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +2284,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>read_1m</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1038,37 +2334,847 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>randread_04k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>randread_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>randread_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>write_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>write_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>write_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>read_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3362</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>read_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>read_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>IOPS!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IOPS!$D$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>213</c:v>
+                <c:pt idx="10">
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +3291,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>read_64k</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1241,43 +3347,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>203</c:v>
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197</c:v>
+                  <c:v>0.863</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>0.926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,7 +3393,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>read_512k</c:v>
+            <c:v>randwrite_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1343,43 +3449,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>202</c:v>
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197</c:v>
+                  <c:v>1.726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,7 +3495,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>read_1m</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1445,43 +3551,961 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>randread_04k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>randread_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.951</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>randread_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>write_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>write_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>write_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>read_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>read_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>520</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>read_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>521</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,7 +4622,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>read_64k</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1621,10 +4645,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>489</c:v>
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +4658,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>read_512k</c:v>
+            <c:v>randwrite_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1657,10 +4681,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>521</c:v>
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,7 +4694,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>read_1m</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1693,7 +4717,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>randread_04k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>randread_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>randread_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>write_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>write_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>write_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$10:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>read_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$11:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>read_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$12:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>read_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$B$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>522</c:v>
@@ -1813,7 +5161,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>read_64k</c:v>
+            <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1863,37 +5211,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>213</c:v>
+                  <c:v>0.851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.863</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,7 +5251,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>read_512k</c:v>
+            <c:v>randwrite_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1953,37 +5301,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>213</c:v>
+                  <c:v>1.687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.726</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +5341,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>read_1m</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2043,37 +5391,847 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>randread_04k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>randread_08k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.188</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>randread_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>write_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>write_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>write_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>read_64k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>read_512k</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>read_1m</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>BW!$D$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BW!$D$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="1">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="2">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>213</c:v>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,13 +6323,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2195,13 +6353,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2225,13 +6383,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2260,13 +6418,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2290,13 +6448,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2320,13 +6478,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2634,7 +6792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2689,43 +6847,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>7861</v>
+        <v>27800</v>
       </c>
       <c r="C2" s="3">
-        <v>7824</v>
+        <v>28100</v>
       </c>
       <c r="D2" s="3">
-        <v>3293</v>
+        <v>212</v>
       </c>
       <c r="E2" s="3">
-        <v>3232</v>
+        <v>220</v>
       </c>
       <c r="F2" s="3">
-        <v>3216</v>
+        <v>216</v>
       </c>
       <c r="G2" s="3">
-        <v>3245</v>
+        <v>212</v>
       </c>
       <c r="H2" s="3">
-        <v>3248</v>
+        <v>220</v>
       </c>
       <c r="I2" s="3">
-        <v>3266</v>
+        <v>230</v>
       </c>
       <c r="J2" s="3">
-        <v>3233</v>
+        <v>221</v>
       </c>
       <c r="K2" s="3">
-        <v>3201</v>
+        <v>229</v>
       </c>
       <c r="L2" s="3">
-        <v>3254</v>
+        <v>225</v>
       </c>
       <c r="M2" s="3">
-        <v>3150</v>
+        <v>215</v>
       </c>
       <c r="N2" s="3">
-        <v>3400</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2733,43 +6891,43 @@
         <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>1041</v>
+        <v>20800</v>
       </c>
       <c r="C3" s="3">
-        <v>1042</v>
+        <v>20600</v>
       </c>
       <c r="D3" s="3">
-        <v>412</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3">
-        <v>403</v>
+        <v>217</v>
       </c>
       <c r="F3" s="3">
-        <v>402</v>
+        <v>214</v>
       </c>
       <c r="G3" s="3">
-        <v>406</v>
+        <v>209</v>
       </c>
       <c r="H3" s="3">
-        <v>405</v>
+        <v>217</v>
       </c>
       <c r="I3" s="3">
-        <v>409</v>
+        <v>227</v>
       </c>
       <c r="J3" s="3">
-        <v>404</v>
+        <v>220</v>
       </c>
       <c r="K3" s="3">
-        <v>400</v>
+        <v>226</v>
       </c>
       <c r="L3" s="3">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="M3" s="3">
-        <v>394</v>
+        <v>215</v>
       </c>
       <c r="N3" s="3">
-        <v>426</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2777,43 +6935,439 @@
         <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>519</v>
+        <v>6220</v>
       </c>
       <c r="C4" s="3">
-        <v>521</v>
+        <v>6208</v>
       </c>
       <c r="D4" s="3">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E4" s="3">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F4" s="3">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H4" s="3">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I4" s="3">
         <v>204</v>
       </c>
       <c r="J4" s="3">
+        <v>199</v>
+      </c>
+      <c r="K4" s="3">
         <v>201</v>
       </c>
-      <c r="K4" s="3">
-        <v>200</v>
-      </c>
       <c r="L4" s="3">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M4" s="3">
         <v>197</v>
       </c>
       <c r="N4" s="3">
-        <v>213</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>68700</v>
+      </c>
+      <c r="C5" s="3">
+        <v>70800</v>
+      </c>
+      <c r="D5" s="3">
+        <v>501</v>
+      </c>
+      <c r="E5" s="3">
+        <v>526</v>
+      </c>
+      <c r="F5" s="3">
+        <v>527</v>
+      </c>
+      <c r="G5" s="3">
+        <v>525</v>
+      </c>
+      <c r="H5" s="3">
+        <v>524</v>
+      </c>
+      <c r="I5" s="3">
+        <v>530</v>
+      </c>
+      <c r="J5" s="3">
+        <v>528</v>
+      </c>
+      <c r="K5" s="3">
+        <v>527</v>
+      </c>
+      <c r="L5" s="3">
+        <v>528</v>
+      </c>
+      <c r="M5" s="3">
+        <v>497</v>
+      </c>
+      <c r="N5" s="3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45600</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45700</v>
+      </c>
+      <c r="D6" s="3">
+        <v>497</v>
+      </c>
+      <c r="E6" s="3">
+        <v>520</v>
+      </c>
+      <c r="F6" s="3">
+        <v>523</v>
+      </c>
+      <c r="G6" s="3">
+        <v>522</v>
+      </c>
+      <c r="H6" s="3">
+        <v>520</v>
+      </c>
+      <c r="I6" s="3">
+        <v>527</v>
+      </c>
+      <c r="J6" s="3">
+        <v>525</v>
+      </c>
+      <c r="K6" s="3">
+        <v>522</v>
+      </c>
+      <c r="L6" s="3">
+        <v>523</v>
+      </c>
+      <c r="M6" s="3">
+        <v>493</v>
+      </c>
+      <c r="N6" s="3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8122</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8086</v>
+      </c>
+      <c r="D7" s="3">
+        <v>448</v>
+      </c>
+      <c r="E7" s="3">
+        <v>465</v>
+      </c>
+      <c r="F7" s="3">
+        <v>462</v>
+      </c>
+      <c r="G7" s="3">
+        <v>461</v>
+      </c>
+      <c r="H7" s="3">
+        <v>464</v>
+      </c>
+      <c r="I7" s="3">
+        <v>464</v>
+      </c>
+      <c r="J7" s="3">
+        <v>461</v>
+      </c>
+      <c r="K7" s="3">
+        <v>460</v>
+      </c>
+      <c r="L7" s="3">
+        <v>453</v>
+      </c>
+      <c r="M7" s="3">
+        <v>439</v>
+      </c>
+      <c r="N7" s="3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1657</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1682</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3089</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3127</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3137</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3041</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3067</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3192</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3216</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3171</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3115</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3099</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>510</v>
+      </c>
+      <c r="C9" s="3">
+        <v>508</v>
+      </c>
+      <c r="D9" s="3">
+        <v>391</v>
+      </c>
+      <c r="E9" s="3">
+        <v>388</v>
+      </c>
+      <c r="F9" s="3">
+        <v>392</v>
+      </c>
+      <c r="G9" s="3">
+        <v>383</v>
+      </c>
+      <c r="H9" s="3">
+        <v>385</v>
+      </c>
+      <c r="I9" s="3">
+        <v>386</v>
+      </c>
+      <c r="J9" s="3">
+        <v>381</v>
+      </c>
+      <c r="K9" s="3">
+        <v>396</v>
+      </c>
+      <c r="L9" s="3">
+        <v>398</v>
+      </c>
+      <c r="M9" s="3">
+        <v>387</v>
+      </c>
+      <c r="N9" s="3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>257</v>
+      </c>
+      <c r="C10" s="3">
+        <v>258</v>
+      </c>
+      <c r="D10" s="3">
+        <v>194</v>
+      </c>
+      <c r="E10" s="3">
+        <v>194</v>
+      </c>
+      <c r="F10" s="3">
+        <v>198</v>
+      </c>
+      <c r="G10" s="3">
+        <v>191</v>
+      </c>
+      <c r="H10" s="3">
+        <v>192</v>
+      </c>
+      <c r="I10" s="3">
+        <v>188</v>
+      </c>
+      <c r="J10" s="3">
+        <v>201</v>
+      </c>
+      <c r="K10" s="3">
+        <v>198</v>
+      </c>
+      <c r="L10" s="3">
+        <v>198</v>
+      </c>
+      <c r="M10" s="3">
+        <v>193</v>
+      </c>
+      <c r="N10" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7972</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7839</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3242</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3279</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3297</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3265</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3190</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3362</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3368</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3286</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3296</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3210</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1045</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D12" s="3">
+        <v>405</v>
+      </c>
+      <c r="E12" s="3">
+        <v>375</v>
+      </c>
+      <c r="F12" s="3">
+        <v>412</v>
+      </c>
+      <c r="G12" s="3">
+        <v>411</v>
+      </c>
+      <c r="H12" s="3">
+        <v>399</v>
+      </c>
+      <c r="I12" s="3">
+        <v>423</v>
+      </c>
+      <c r="J12" s="3">
+        <v>421</v>
+      </c>
+      <c r="K12" s="3">
+        <v>410</v>
+      </c>
+      <c r="L12" s="3">
+        <v>411</v>
+      </c>
+      <c r="M12" s="3">
+        <v>402</v>
+      </c>
+      <c r="N12" s="3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>521</v>
+      </c>
+      <c r="C13" s="3">
+        <v>521</v>
+      </c>
+      <c r="D13" s="3">
+        <v>202</v>
+      </c>
+      <c r="E13" s="3">
+        <v>205</v>
+      </c>
+      <c r="F13" s="3">
+        <v>206</v>
+      </c>
+      <c r="G13" s="3">
+        <v>205</v>
+      </c>
+      <c r="H13" s="3">
+        <v>199</v>
+      </c>
+      <c r="I13" s="3">
+        <v>211</v>
+      </c>
+      <c r="J13" s="3">
+        <v>210</v>
+      </c>
+      <c r="K13" s="3">
+        <v>205</v>
+      </c>
+      <c r="L13" s="3">
+        <v>206</v>
+      </c>
+      <c r="M13" s="3">
+        <v>201</v>
+      </c>
+      <c r="N13" s="3">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +7378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2876,134 +7430,530 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
-        <v>491</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3">
-        <v>489</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3">
-        <v>206</v>
+        <v>0.851</v>
       </c>
       <c r="E2" s="3">
-        <v>202</v>
+        <v>0.882</v>
       </c>
       <c r="F2" s="3">
-        <v>201</v>
+        <v>0.865</v>
       </c>
       <c r="G2" s="3">
-        <v>203</v>
+        <v>0.848</v>
       </c>
       <c r="H2" s="3">
-        <v>203</v>
+        <v>0.881</v>
       </c>
       <c r="I2" s="3">
-        <v>204</v>
+        <v>0.921</v>
       </c>
       <c r="J2" s="3">
-        <v>202</v>
+        <v>0.885</v>
       </c>
       <c r="K2" s="3">
-        <v>200</v>
+        <v>0.917</v>
       </c>
       <c r="L2" s="3">
-        <v>203</v>
+        <v>0.9</v>
       </c>
       <c r="M2" s="3">
-        <v>197</v>
+        <v>0.863</v>
       </c>
       <c r="N2" s="3">
-        <v>213</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
-        <v>521</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3">
-        <v>521</v>
+        <v>161</v>
       </c>
       <c r="D3" s="3">
-        <v>206</v>
+        <v>1.687</v>
       </c>
       <c r="E3" s="3">
-        <v>202</v>
+        <v>1.736</v>
       </c>
       <c r="F3" s="3">
-        <v>201</v>
+        <v>1.713</v>
       </c>
       <c r="G3" s="3">
-        <v>203</v>
+        <v>1.678</v>
       </c>
       <c r="H3" s="3">
-        <v>203</v>
+        <v>1.738</v>
       </c>
       <c r="I3" s="3">
-        <v>205</v>
+        <v>1.822</v>
       </c>
       <c r="J3" s="3">
-        <v>202</v>
+        <v>1.76</v>
       </c>
       <c r="K3" s="3">
-        <v>200</v>
+        <v>1.812</v>
       </c>
       <c r="L3" s="3">
-        <v>202</v>
+        <v>1.781</v>
       </c>
       <c r="M3" s="3">
-        <v>197</v>
+        <v>1.726</v>
       </c>
       <c r="N3" s="3">
-        <v>213</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
+        <v>389</v>
+      </c>
+      <c r="C4" s="3">
+        <v>388</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="L4" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="M4" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3">
+        <v>268</v>
+      </c>
+      <c r="C5" s="3">
+        <v>277</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.004</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.104</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.112</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.102</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.124</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.114</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.111</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.112</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
+        <v>356</v>
+      </c>
+      <c r="C6" s="3">
+        <v>357</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.983</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.167</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.186</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.181</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.162</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.219</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.201</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.178</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4.188</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3.951</v>
+      </c>
+      <c r="N6" s="3">
+        <v>4.212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3">
+        <v>508</v>
+      </c>
+      <c r="C7" s="3">
+        <v>505</v>
+      </c>
+      <c r="D7" s="3">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3">
+        <v>29</v>
+      </c>
+      <c r="J7" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="K7" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="L7" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3">
+        <v>105</v>
+      </c>
+      <c r="D8" s="3">
+        <v>193</v>
+      </c>
+      <c r="E8" s="3">
+        <v>195</v>
+      </c>
+      <c r="F8" s="3">
+        <v>196</v>
+      </c>
+      <c r="G8" s="3">
+        <v>190</v>
+      </c>
+      <c r="H8" s="3">
+        <v>192</v>
+      </c>
+      <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>201</v>
+      </c>
+      <c r="K8" s="3">
+        <v>198</v>
+      </c>
+      <c r="L8" s="3">
+        <v>195</v>
+      </c>
+      <c r="M8" s="3">
+        <v>194</v>
+      </c>
+      <c r="N8" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3">
+        <v>255</v>
+      </c>
+      <c r="C9" s="3">
+        <v>254</v>
+      </c>
+      <c r="D9" s="3">
+        <v>196</v>
+      </c>
+      <c r="E9" s="3">
+        <v>194</v>
+      </c>
+      <c r="F9" s="3">
+        <v>196</v>
+      </c>
+      <c r="G9" s="3">
+        <v>192</v>
+      </c>
+      <c r="H9" s="3">
+        <v>193</v>
+      </c>
+      <c r="I9" s="3">
+        <v>193</v>
+      </c>
+      <c r="J9" s="3">
+        <v>191</v>
+      </c>
+      <c r="K9" s="3">
+        <v>198</v>
+      </c>
+      <c r="L9" s="3">
+        <v>199</v>
+      </c>
+      <c r="M9" s="3">
+        <v>194</v>
+      </c>
+      <c r="N9" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>258</v>
+      </c>
+      <c r="C10" s="3">
+        <v>259</v>
+      </c>
+      <c r="D10" s="3">
+        <v>195</v>
+      </c>
+      <c r="E10" s="3">
+        <v>195</v>
+      </c>
+      <c r="F10" s="3">
+        <v>198</v>
+      </c>
+      <c r="G10" s="3">
+        <v>192</v>
+      </c>
+      <c r="H10" s="3">
+        <v>192</v>
+      </c>
+      <c r="I10" s="3">
+        <v>189</v>
+      </c>
+      <c r="J10" s="3">
+        <v>202</v>
+      </c>
+      <c r="K10" s="3">
+        <v>198</v>
+      </c>
+      <c r="L10" s="3">
+        <v>198</v>
+      </c>
+      <c r="M10" s="3">
+        <v>193</v>
+      </c>
+      <c r="N10" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3">
+        <v>498</v>
+      </c>
+      <c r="C11" s="3">
+        <v>490</v>
+      </c>
+      <c r="D11" s="3">
+        <v>203</v>
+      </c>
+      <c r="E11" s="3">
+        <v>205</v>
+      </c>
+      <c r="F11" s="3">
+        <v>206</v>
+      </c>
+      <c r="G11" s="3">
+        <v>204</v>
+      </c>
+      <c r="H11" s="3">
+        <v>199</v>
+      </c>
+      <c r="I11" s="3">
+        <v>210</v>
+      </c>
+      <c r="J11" s="3">
+        <v>211</v>
+      </c>
+      <c r="K11" s="3">
+        <v>205</v>
+      </c>
+      <c r="L11" s="3">
+        <v>206</v>
+      </c>
+      <c r="M11" s="3">
+        <v>201</v>
+      </c>
+      <c r="N11" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>523</v>
+      </c>
+      <c r="C12" s="3">
         <v>520</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D12" s="3">
+        <v>203</v>
+      </c>
+      <c r="E12" s="3">
+        <v>188</v>
+      </c>
+      <c r="F12" s="3">
+        <v>206</v>
+      </c>
+      <c r="G12" s="3">
+        <v>206</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>212</v>
+      </c>
+      <c r="J12" s="3">
+        <v>211</v>
+      </c>
+      <c r="K12" s="3">
+        <v>205</v>
+      </c>
+      <c r="L12" s="3">
+        <v>206</v>
+      </c>
+      <c r="M12" s="3">
+        <v>201</v>
+      </c>
+      <c r="N12" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3">
+        <v>521</v>
+      </c>
+      <c r="C13" s="3">
         <v>522</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D13" s="3">
+        <v>203</v>
+      </c>
+      <c r="E13" s="3">
+        <v>205</v>
+      </c>
+      <c r="F13" s="3">
+        <v>207</v>
+      </c>
+      <c r="G13" s="3">
         <v>206</v>
       </c>
-      <c r="E4" s="3">
-        <v>202</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="H13" s="3">
+        <v>200</v>
+      </c>
+      <c r="I13" s="3">
+        <v>212</v>
+      </c>
+      <c r="J13" s="3">
+        <v>211</v>
+      </c>
+      <c r="K13" s="3">
+        <v>206</v>
+      </c>
+      <c r="L13" s="3">
+        <v>206</v>
+      </c>
+      <c r="M13" s="3">
         <v>201</v>
       </c>
-      <c r="G4" s="3">
-        <v>203</v>
-      </c>
-      <c r="H4" s="3">
-        <v>203</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="N13" s="3">
         <v>205</v>
-      </c>
-      <c r="J4" s="3">
-        <v>202</v>
-      </c>
-      <c r="K4" s="3">
-        <v>200</v>
-      </c>
-      <c r="L4" s="3">
-        <v>203</v>
-      </c>
-      <c r="M4" s="3">
-        <v>197</v>
-      </c>
-      <c r="N4" s="3">
-        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/fio/format_xslx/xlsx/performance.xlsx
+++ b/fio/format_xslx/xlsx/performance.xlsx
@@ -290,43 +290,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>27800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="6">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>225</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>249</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>215</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>231</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,43 +392,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>20800</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>227</c:v>
+                <c:pt idx="1">
+                  <c:v>20700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>222</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>215</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>227</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,43 +494,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6220</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6208</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>205</c:v>
+                  <c:v>6145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>201</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,43 +596,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>68700</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>70800</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="1">
+                  <c:v>70900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>526</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>528</c:v>
+                <c:pt idx="10">
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>497</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>528</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,43 +698,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>45700</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45600</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>45700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>520</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>523</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>523</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>502</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>493</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>526</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,43 +800,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>8122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8086</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                  <c:v>8078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,43 +902,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1657</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3089</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3137</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3041</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3067</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3192</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3216</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3171</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3115</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3099</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,43 +1004,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>391</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>383</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>381</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>398</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>387</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>387</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,43 +1106,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>198</c:v>
+                <c:pt idx="10">
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>193</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,43 +1208,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7972</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7839</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3297</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3265</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3362</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3368</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3296</c:v>
+                  <c:v>7861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3254</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3210</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3279</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,43 +1310,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>405</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>411</c:v>
+                <c:pt idx="7">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>402</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>411</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,43 +1412,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>521</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>206</c:v>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>205</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,10 +1588,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>27800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28100</c:v>
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,10 +1624,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20800</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,10 +1660,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6220</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6208</c:v>
+                  <c:v>6145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,10 +1696,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>68700</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>70800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,10 +1732,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>45700</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>45600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,10 +1768,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8086</c:v>
+                  <c:v>8078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,10 +1804,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1657</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1682</c:v>
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,10 +1840,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>508</c:v>
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,10 +1876,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>258</c:v>
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,10 +1912,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7972</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7839</c:v>
+                  <c:v>7861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,10 +1948,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1040</c:v>
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,7 +1984,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>521</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>521</c:v>
@@ -2154,37 +2154,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="4">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>231</c:v>
+                <c:pt idx="6">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,37 +2244,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>227</c:v>
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>222</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>227</c:v>
+                <c:pt idx="10">
+                  <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,37 +2334,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201</c:v>
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,37 +2424,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>526</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>528</c:v>
+                <c:pt idx="8">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,37 +2514,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>520</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>523</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="7">
                   <c:v>523</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>526</c:v>
+                <c:pt idx="8">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,37 +2604,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>465</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>461</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,37 +2694,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3089</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3137</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3067</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3216</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                  <c:v>3145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3171</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3115</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,37 +2784,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>391</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>383</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>381</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>387</c:v>
+                <c:pt idx="9">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,37 +2874,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>194</c:v>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2964,37 +2964,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3242</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3265</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3190</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3362</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3368</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3296</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3210</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3279</c:v>
+                  <c:v>3293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,37 +3054,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>405</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>411</c:v>
+                <c:pt idx="5">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,37 +3144,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>205</c:v>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,43 +3347,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.851</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.882</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.865</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.848</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.881</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.921</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.885</c:v>
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.909</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.863</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.926</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3449,43 +3449,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.687</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.736</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.713</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.738</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.822</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.781</c:v>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.726</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.82</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,43 +3551,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>389</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.9</c:v>
+                <c:pt idx="3">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.3</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.6</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,43 +3653,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>268</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.104</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.102</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.114</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                  <c:v>2.122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.078</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.111</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.112</c:v>
+                <c:pt idx="5">
+                  <c:v>2.122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.99</c:v>
+                  <c:v>2.093</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.113</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,43 +3755,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.983</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.167</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
+                  <c:v>4.207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.188</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4.186</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.181</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.162</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.219</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.201</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.178</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.188</c:v>
+                <c:pt idx="10">
+                  <c:v>4.018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.951</c:v>
+                  <c:v>4.158</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.212</c:v>
+                  <c:v>4.147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3857,43 +3857,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>505</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>28.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3962,40 +3962,40 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>193</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,40 +4064,40 @@
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>199</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>194</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4163,43 +4163,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4265,43 +4265,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>206</c:v>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>205</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,43 +4367,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>206</c:v>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>206</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4469,43 +4469,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>521</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>206</c:v>
+                <c:pt idx="10">
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>201</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>205</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4645,10 +4645,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4681,10 +4681,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,10 +4717,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,7 +4753,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>268</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>277</c:v>
@@ -4789,10 +4789,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,10 +4825,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4864,7 +4864,7 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4900,7 +4900,7 @@
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4933,10 +4933,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>259</c:v>
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4969,10 +4969,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>490</c:v>
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5005,10 +5005,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>520</c:v>
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5041,7 +5041,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>521</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>522</c:v>
@@ -5211,37 +5211,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.851</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.882</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.865</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.848</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.881</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.921</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.885</c:v>
+                  <c:v>0.925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.909</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.917</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.863</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.926</c:v>
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5301,37 +5301,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.687</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.736</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.713</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.678</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.738</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.822</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.812</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.781</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.726</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.82</c:v>
+                  <c:v>1.847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.972</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5391,37 +5391,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.6</c:v>
+                <c:pt idx="1">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5481,37 +5481,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.112</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.114</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                  <c:v>2.122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.078</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.111</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="3">
+                  <c:v>2.122</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5571,37 +5571,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.167</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>4.207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.188</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4.186</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.181</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.162</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.219</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.178</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.188</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.951</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.212</c:v>
+                <c:pt idx="8">
+                  <c:v>4.018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5661,37 +5661,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>28.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5751,37 +5751,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>193</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5841,37 +5841,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>194</c:v>
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5931,37 +5931,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6021,37 +6021,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>205</c:v>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,37 +6111,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>206</c:v>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6201,37 +6201,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>205</c:v>
+                <c:pt idx="8">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6847,43 +6847,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>27800</v>
+        <v>28000</v>
       </c>
       <c r="C2" s="3">
-        <v>28100</v>
+        <v>27900</v>
       </c>
       <c r="D2" s="3">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="E2" s="3">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="F2" s="3">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G2" s="3">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H2" s="3">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="I2" s="3">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J2" s="3">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K2" s="3">
         <v>229</v>
       </c>
       <c r="L2" s="3">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M2" s="3">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="N2" s="3">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6891,43 +6891,43 @@
         <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="C3" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="D3" s="3">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E3" s="3">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="F3" s="3">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G3" s="3">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="H3" s="3">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="I3" s="3">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J3" s="3">
         <v>220</v>
       </c>
       <c r="K3" s="3">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L3" s="3">
+        <v>246</v>
+      </c>
+      <c r="M3" s="3">
         <v>222</v>
       </c>
-      <c r="M3" s="3">
-        <v>215</v>
-      </c>
       <c r="N3" s="3">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6935,43 +6935,43 @@
         <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>6220</v>
+        <v>6145</v>
       </c>
       <c r="C4" s="3">
-        <v>6208</v>
+        <v>6227</v>
       </c>
       <c r="D4" s="3">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F4" s="3">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H4" s="3">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="I4" s="3">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J4" s="3">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="K4" s="3">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="L4" s="3">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M4" s="3">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="N4" s="3">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6979,43 +6979,43 @@
         <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>68700</v>
+        <v>70800</v>
       </c>
       <c r="C5" s="3">
-        <v>70800</v>
+        <v>70900</v>
       </c>
       <c r="D5" s="3">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="E5" s="3">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F5" s="3">
         <v>527</v>
       </c>
       <c r="G5" s="3">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="H5" s="3">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="I5" s="3">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J5" s="3">
         <v>528</v>
       </c>
       <c r="K5" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L5" s="3">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="M5" s="3">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="N5" s="3">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -7023,19 +7023,19 @@
         <v>18</v>
       </c>
       <c r="B6" s="3">
+        <v>45700</v>
+      </c>
+      <c r="C6" s="3">
         <v>45600</v>
       </c>
-      <c r="C6" s="3">
-        <v>45700</v>
-      </c>
       <c r="D6" s="3">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="E6" s="3">
+        <v>515</v>
+      </c>
+      <c r="F6" s="3">
         <v>520</v>
-      </c>
-      <c r="F6" s="3">
-        <v>523</v>
       </c>
       <c r="G6" s="3">
         <v>522</v>
@@ -7044,22 +7044,22 @@
         <v>520</v>
       </c>
       <c r="I6" s="3">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="J6" s="3">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K6" s="3">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L6" s="3">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="M6" s="3">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="N6" s="3">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7067,43 +7067,43 @@
         <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>8122</v>
+        <v>8078</v>
       </c>
       <c r="C7" s="3">
-        <v>8086</v>
+        <v>8208</v>
       </c>
       <c r="D7" s="3">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="E7" s="3">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="F7" s="3">
         <v>462</v>
       </c>
       <c r="G7" s="3">
+        <v>464</v>
+      </c>
+      <c r="H7" s="3">
         <v>461</v>
       </c>
-      <c r="H7" s="3">
-        <v>464</v>
-      </c>
       <c r="I7" s="3">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J7" s="3">
+        <v>465</v>
+      </c>
+      <c r="K7" s="3">
         <v>461</v>
       </c>
-      <c r="K7" s="3">
-        <v>460</v>
-      </c>
       <c r="L7" s="3">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M7" s="3">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="N7" s="3">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7111,43 +7111,43 @@
         <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="C8" s="3">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="D8" s="3">
-        <v>3089</v>
+        <v>3145</v>
       </c>
       <c r="E8" s="3">
-        <v>3127</v>
+        <v>3095</v>
       </c>
       <c r="F8" s="3">
-        <v>3137</v>
+        <v>3077</v>
       </c>
       <c r="G8" s="3">
-        <v>3041</v>
+        <v>3094</v>
       </c>
       <c r="H8" s="3">
-        <v>3067</v>
+        <v>3094</v>
       </c>
       <c r="I8" s="3">
-        <v>3192</v>
+        <v>3132</v>
       </c>
       <c r="J8" s="3">
-        <v>3216</v>
+        <v>3095</v>
       </c>
       <c r="K8" s="3">
+        <v>3071</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3026</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3018</v>
+      </c>
+      <c r="N8" s="3">
         <v>3171</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3115</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3099</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7155,43 +7155,43 @@
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C9" s="3">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D9" s="3">
+        <v>373</v>
+      </c>
+      <c r="E9" s="3">
+        <v>386</v>
+      </c>
+      <c r="F9" s="3">
+        <v>383</v>
+      </c>
+      <c r="G9" s="3">
+        <v>388</v>
+      </c>
+      <c r="H9" s="3">
+        <v>383</v>
+      </c>
+      <c r="I9" s="3">
         <v>391</v>
       </c>
-      <c r="E9" s="3">
-        <v>388</v>
-      </c>
-      <c r="F9" s="3">
-        <v>392</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
+        <v>385</v>
+      </c>
+      <c r="K9" s="3">
         <v>383</v>
       </c>
-      <c r="H9" s="3">
-        <v>385</v>
-      </c>
-      <c r="I9" s="3">
-        <v>386</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>381</v>
       </c>
-      <c r="K9" s="3">
-        <v>396</v>
-      </c>
-      <c r="L9" s="3">
-        <v>398</v>
-      </c>
       <c r="M9" s="3">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="N9" s="3">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7199,43 +7199,43 @@
         <v>22</v>
       </c>
       <c r="B10" s="3">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C10" s="3">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D10" s="3">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E10" s="3">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" s="3">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G10" s="3">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H10" s="3">
         <v>192</v>
       </c>
       <c r="I10" s="3">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J10" s="3">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K10" s="3">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L10" s="3">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M10" s="3">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N10" s="3">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -7243,43 +7243,43 @@
         <v>23</v>
       </c>
       <c r="B11" s="3">
-        <v>7972</v>
+        <v>7861</v>
       </c>
       <c r="C11" s="3">
-        <v>7839</v>
+        <v>7824</v>
       </c>
       <c r="D11" s="3">
-        <v>3242</v>
+        <v>3293</v>
       </c>
       <c r="E11" s="3">
-        <v>3279</v>
+        <v>3232</v>
       </c>
       <c r="F11" s="3">
-        <v>3297</v>
+        <v>3216</v>
       </c>
       <c r="G11" s="3">
-        <v>3265</v>
+        <v>3245</v>
       </c>
       <c r="H11" s="3">
-        <v>3190</v>
+        <v>3248</v>
       </c>
       <c r="I11" s="3">
-        <v>3362</v>
+        <v>3266</v>
       </c>
       <c r="J11" s="3">
-        <v>3368</v>
+        <v>3233</v>
       </c>
       <c r="K11" s="3">
-        <v>3286</v>
+        <v>3201</v>
       </c>
       <c r="L11" s="3">
-        <v>3296</v>
+        <v>3254</v>
       </c>
       <c r="M11" s="3">
-        <v>3210</v>
+        <v>3150</v>
       </c>
       <c r="N11" s="3">
-        <v>3279</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -7287,43 +7287,43 @@
         <v>24</v>
       </c>
       <c r="B12" s="3">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="3">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D12" s="3">
+        <v>412</v>
+      </c>
+      <c r="E12" s="3">
+        <v>403</v>
+      </c>
+      <c r="F12" s="3">
+        <v>402</v>
+      </c>
+      <c r="G12" s="3">
+        <v>406</v>
+      </c>
+      <c r="H12" s="3">
         <v>405</v>
       </c>
-      <c r="E12" s="3">
-        <v>375</v>
-      </c>
-      <c r="F12" s="3">
-        <v>412</v>
-      </c>
-      <c r="G12" s="3">
-        <v>411</v>
-      </c>
-      <c r="H12" s="3">
-        <v>399</v>
-      </c>
       <c r="I12" s="3">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="J12" s="3">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="K12" s="3">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L12" s="3">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M12" s="3">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="N12" s="3">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -7331,43 +7331,43 @@
         <v>25</v>
       </c>
       <c r="B13" s="3">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C13" s="3">
         <v>521</v>
       </c>
       <c r="D13" s="3">
+        <v>206</v>
+      </c>
+      <c r="E13" s="3">
         <v>202</v>
       </c>
-      <c r="E13" s="3">
-        <v>205</v>
-      </c>
       <c r="F13" s="3">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G13" s="3">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H13" s="3">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I13" s="3">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J13" s="3">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K13" s="3">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L13" s="3">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M13" s="3">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N13" s="3">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7433,43 +7433,43 @@
         <v>26</v>
       </c>
       <c r="B2" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3">
-        <v>0.851</v>
+        <v>0.925</v>
       </c>
       <c r="E2" s="3">
-        <v>0.882</v>
+        <v>0.965</v>
       </c>
       <c r="F2" s="3">
-        <v>0.865</v>
+        <v>0.925</v>
       </c>
       <c r="G2" s="3">
-        <v>0.848</v>
+        <v>0.918</v>
       </c>
       <c r="H2" s="3">
-        <v>0.881</v>
+        <v>0.954</v>
       </c>
       <c r="I2" s="3">
-        <v>0.921</v>
+        <v>0.903</v>
       </c>
       <c r="J2" s="3">
-        <v>0.885</v>
+        <v>0.909</v>
       </c>
       <c r="K2" s="3">
         <v>0.917</v>
       </c>
       <c r="L2" s="3">
-        <v>0.9</v>
+        <v>0.996</v>
       </c>
       <c r="M2" s="3">
-        <v>0.863</v>
+        <v>0.91</v>
       </c>
       <c r="N2" s="3">
-        <v>0.926</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -7477,43 +7477,43 @@
         <v>27</v>
       </c>
       <c r="B3" s="3">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" s="3">
-        <v>1.687</v>
+        <v>1.847</v>
       </c>
       <c r="E3" s="3">
-        <v>1.736</v>
+        <v>1.912</v>
       </c>
       <c r="F3" s="3">
-        <v>1.713</v>
+        <v>1.813</v>
       </c>
       <c r="G3" s="3">
-        <v>1.678</v>
+        <v>1.801</v>
       </c>
       <c r="H3" s="3">
-        <v>1.738</v>
+        <v>1.884</v>
       </c>
       <c r="I3" s="3">
-        <v>1.822</v>
+        <v>1.774</v>
       </c>
       <c r="J3" s="3">
-        <v>1.76</v>
+        <v>1.766</v>
       </c>
       <c r="K3" s="3">
-        <v>1.812</v>
+        <v>1.8</v>
       </c>
       <c r="L3" s="3">
-        <v>1.781</v>
+        <v>1.972</v>
       </c>
       <c r="M3" s="3">
-        <v>1.726</v>
+        <v>1.78</v>
       </c>
       <c r="N3" s="3">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -7521,43 +7521,43 @@
         <v>28</v>
       </c>
       <c r="B4" s="3">
+        <v>384</v>
+      </c>
+      <c r="C4" s="3">
         <v>389</v>
       </c>
-      <c r="C4" s="3">
-        <v>388</v>
-      </c>
       <c r="D4" s="3">
-        <v>12.2</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
-        <v>12.4</v>
+        <v>11.3</v>
       </c>
       <c r="F4" s="3">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="G4" s="3">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="H4" s="3">
-        <v>12.4</v>
+        <v>11.1</v>
       </c>
       <c r="I4" s="3">
-        <v>12.8</v>
+        <v>10.7</v>
       </c>
       <c r="J4" s="3">
-        <v>12.5</v>
+        <v>10.8</v>
       </c>
       <c r="K4" s="3">
-        <v>12.6</v>
+        <v>10.9</v>
       </c>
       <c r="L4" s="3">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="M4" s="3">
-        <v>12.3</v>
+        <v>10.9</v>
       </c>
       <c r="N4" s="3">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -7565,43 +7565,43 @@
         <v>29</v>
       </c>
       <c r="B5" s="3">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C5" s="3">
         <v>277</v>
       </c>
       <c r="D5" s="3">
-        <v>2.004</v>
+        <v>2.122</v>
       </c>
       <c r="E5" s="3">
-        <v>2.104</v>
+        <v>2.078</v>
       </c>
       <c r="F5" s="3">
-        <v>2.112</v>
+        <v>2.111</v>
       </c>
       <c r="G5" s="3">
-        <v>2.102</v>
+        <v>2.122</v>
       </c>
       <c r="H5" s="3">
-        <v>2.1</v>
+        <v>2.113</v>
       </c>
       <c r="I5" s="3">
-        <v>2.124</v>
+        <v>2.109</v>
       </c>
       <c r="J5" s="3">
-        <v>2.114</v>
+        <v>2.113</v>
       </c>
       <c r="K5" s="3">
-        <v>2.111</v>
+        <v>2.105</v>
       </c>
       <c r="L5" s="3">
-        <v>2.112</v>
+        <v>2.024</v>
       </c>
       <c r="M5" s="3">
-        <v>1.99</v>
+        <v>2.093</v>
       </c>
       <c r="N5" s="3">
-        <v>2.113</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -7609,43 +7609,43 @@
         <v>30</v>
       </c>
       <c r="B6" s="3">
+        <v>357</v>
+      </c>
+      <c r="C6" s="3">
         <v>356</v>
       </c>
-      <c r="C6" s="3">
-        <v>357</v>
-      </c>
       <c r="D6" s="3">
-        <v>3.983</v>
+        <v>4.207</v>
       </c>
       <c r="E6" s="3">
-        <v>4.167</v>
+        <v>4.12</v>
       </c>
       <c r="F6" s="3">
+        <v>4.162</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.182</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.166</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.158</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.188</v>
+      </c>
+      <c r="K6" s="3">
         <v>4.186</v>
       </c>
-      <c r="G6" s="3">
-        <v>4.181</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.162</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4.219</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4.201</v>
-      </c>
-      <c r="K6" s="3">
-        <v>4.178</v>
-      </c>
       <c r="L6" s="3">
-        <v>4.188</v>
+        <v>4.018</v>
       </c>
       <c r="M6" s="3">
-        <v>3.951</v>
+        <v>4.158</v>
       </c>
       <c r="N6" s="3">
-        <v>4.212</v>
+        <v>4.147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7653,43 +7653,43 @@
         <v>31</v>
       </c>
       <c r="B7" s="3">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C7" s="3">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D7" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>29.1</v>
+        <v>28.1</v>
       </c>
       <c r="F7" s="3">
         <v>28.9</v>
       </c>
       <c r="G7" s="3">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="I7" s="3">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="J7" s="3">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="K7" s="3">
         <v>28.8</v>
       </c>
       <c r="L7" s="3">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="M7" s="3">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="N7" s="3">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7700,40 +7700,40 @@
         <v>104</v>
       </c>
       <c r="C8" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="3">
+        <v>197</v>
+      </c>
+      <c r="E8" s="3">
         <v>193</v>
       </c>
-      <c r="E8" s="3">
-        <v>195</v>
-      </c>
       <c r="F8" s="3">
+        <v>192</v>
+      </c>
+      <c r="G8" s="3">
+        <v>193</v>
+      </c>
+      <c r="H8" s="3">
+        <v>193</v>
+      </c>
+      <c r="I8" s="3">
         <v>196</v>
       </c>
-      <c r="G8" s="3">
-        <v>190</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
+        <v>193</v>
+      </c>
+      <c r="K8" s="3">
         <v>192</v>
       </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>201</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>189</v>
+      </c>
+      <c r="M8" s="3">
+        <v>189</v>
+      </c>
+      <c r="N8" s="3">
         <v>198</v>
-      </c>
-      <c r="L8" s="3">
-        <v>195</v>
-      </c>
-      <c r="M8" s="3">
-        <v>194</v>
-      </c>
-      <c r="N8" s="3">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7744,40 +7744,40 @@
         <v>255</v>
       </c>
       <c r="C9" s="3">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D9" s="3">
+        <v>187</v>
+      </c>
+      <c r="E9" s="3">
+        <v>193</v>
+      </c>
+      <c r="F9" s="3">
+        <v>192</v>
+      </c>
+      <c r="G9" s="3">
+        <v>194</v>
+      </c>
+      <c r="H9" s="3">
+        <v>192</v>
+      </c>
+      <c r="I9" s="3">
         <v>196</v>
       </c>
-      <c r="E9" s="3">
-        <v>194</v>
-      </c>
-      <c r="F9" s="3">
-        <v>196</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
+        <v>193</v>
+      </c>
+      <c r="K9" s="3">
         <v>192</v>
       </c>
-      <c r="H9" s="3">
-        <v>193</v>
-      </c>
-      <c r="I9" s="3">
-        <v>193</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>191</v>
       </c>
-      <c r="K9" s="3">
-        <v>198</v>
-      </c>
-      <c r="L9" s="3">
-        <v>199</v>
-      </c>
       <c r="M9" s="3">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N9" s="3">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -7785,43 +7785,43 @@
         <v>34</v>
       </c>
       <c r="B10" s="3">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C10" s="3">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D10" s="3">
+        <v>197</v>
+      </c>
+      <c r="E10" s="3">
+        <v>193</v>
+      </c>
+      <c r="F10" s="3">
+        <v>192</v>
+      </c>
+      <c r="G10" s="3">
+        <v>193</v>
+      </c>
+      <c r="H10" s="3">
+        <v>193</v>
+      </c>
+      <c r="I10" s="3">
         <v>195</v>
       </c>
-      <c r="E10" s="3">
-        <v>195</v>
-      </c>
-      <c r="F10" s="3">
-        <v>198</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>192</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>192</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
+        <v>190</v>
+      </c>
+      <c r="M10" s="3">
         <v>189</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>202</v>
-      </c>
-      <c r="K10" s="3">
-        <v>198</v>
-      </c>
-      <c r="L10" s="3">
-        <v>198</v>
-      </c>
-      <c r="M10" s="3">
-        <v>193</v>
-      </c>
-      <c r="N10" s="3">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -7829,43 +7829,43 @@
         <v>35</v>
       </c>
       <c r="B11" s="3">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C11" s="3">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D11" s="3">
+        <v>206</v>
+      </c>
+      <c r="E11" s="3">
+        <v>202</v>
+      </c>
+      <c r="F11" s="3">
+        <v>201</v>
+      </c>
+      <c r="G11" s="3">
         <v>203</v>
       </c>
-      <c r="E11" s="3">
-        <v>205</v>
-      </c>
-      <c r="F11" s="3">
-        <v>206</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
+        <v>203</v>
+      </c>
+      <c r="I11" s="3">
         <v>204</v>
       </c>
-      <c r="H11" s="3">
-        <v>199</v>
-      </c>
-      <c r="I11" s="3">
-        <v>210</v>
-      </c>
       <c r="J11" s="3">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K11" s="3">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L11" s="3">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M11" s="3">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N11" s="3">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -7873,43 +7873,43 @@
         <v>36</v>
       </c>
       <c r="B12" s="3">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C12" s="3">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D12" s="3">
+        <v>206</v>
+      </c>
+      <c r="E12" s="3">
+        <v>202</v>
+      </c>
+      <c r="F12" s="3">
+        <v>201</v>
+      </c>
+      <c r="G12" s="3">
         <v>203</v>
       </c>
-      <c r="E12" s="3">
-        <v>188</v>
-      </c>
-      <c r="F12" s="3">
-        <v>206</v>
-      </c>
-      <c r="G12" s="3">
-        <v>206</v>
-      </c>
       <c r="H12" s="3">
+        <v>203</v>
+      </c>
+      <c r="I12" s="3">
+        <v>205</v>
+      </c>
+      <c r="J12" s="3">
+        <v>202</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>212</v>
-      </c>
-      <c r="J12" s="3">
-        <v>211</v>
-      </c>
-      <c r="K12" s="3">
-        <v>205</v>
-      </c>
       <c r="L12" s="3">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M12" s="3">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N12" s="3">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -7917,43 +7917,43 @@
         <v>37</v>
       </c>
       <c r="B13" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C13" s="3">
         <v>522</v>
       </c>
       <c r="D13" s="3">
+        <v>206</v>
+      </c>
+      <c r="E13" s="3">
+        <v>202</v>
+      </c>
+      <c r="F13" s="3">
+        <v>201</v>
+      </c>
+      <c r="G13" s="3">
         <v>203</v>
       </c>
-      <c r="E13" s="3">
+      <c r="H13" s="3">
+        <v>203</v>
+      </c>
+      <c r="I13" s="3">
         <v>205</v>
       </c>
-      <c r="F13" s="3">
-        <v>207</v>
-      </c>
-      <c r="G13" s="3">
-        <v>206</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
+        <v>202</v>
+      </c>
+      <c r="K13" s="3">
         <v>200</v>
       </c>
-      <c r="I13" s="3">
-        <v>212</v>
-      </c>
-      <c r="J13" s="3">
-        <v>211</v>
-      </c>
-      <c r="K13" s="3">
-        <v>206</v>
-      </c>
       <c r="L13" s="3">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M13" s="3">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N13" s="3">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/fio/format_xslx/xlsx/performance.xlsx
+++ b/fio/format_xslx/xlsx/performance.xlsx
@@ -15,12 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>disk</t>
   </si>
   <si>
-    <t>ceph_log</t>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>sdb</t>
+  </si>
+  <si>
+    <t>sdd</t>
+  </si>
+  <si>
+    <t>sde</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>sdg</t>
+  </si>
+  <si>
+    <t>sdh</t>
+  </si>
+  <si>
+    <t>sdi</t>
+  </si>
+  <si>
+    <t>sdj</t>
+  </si>
+  <si>
+    <t>sdk</t>
+  </si>
+  <si>
+    <t>sdl</t>
+  </si>
+  <si>
+    <t>sdm</t>
+  </si>
+  <si>
+    <t>sdn</t>
   </si>
   <si>
     <t>IOPS(randwrite_04k)</t>
@@ -29,61 +65,34 @@
     <t>IOPS(randwrite_08k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_16k)</t>
-  </si>
-  <si>
-    <t>IOPS(randwrite_32k)</t>
-  </si>
-  <si>
     <t>IOPS(randwrite_64k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_128k)</t>
+    <t>IOPS(randread_04k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_512k)</t>
+    <t>IOPS(randread_08k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_1m)</t>
+    <t>IOPS(randread_64k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_2m)</t>
+    <t>IOPS(write_64k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_4m)</t>
+    <t>IOPS(write_512k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_6m)</t>
+    <t>IOPS(write_1m)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_8m)</t>
+    <t>IOPS(read_64k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_10m)</t>
+    <t>IOPS(read_512k)</t>
   </si>
   <si>
-    <t>IOPS(randwrite_12m)</t>
-  </si>
-  <si>
-    <t>IOPS(randwrite_16m)</t>
-  </si>
-  <si>
-    <t>IOPS(randwrite_20m)</t>
-  </si>
-  <si>
-    <t>IOPS(randwrite_24m)</t>
-  </si>
-  <si>
-    <t>IOPS(randwrite_28m)</t>
-  </si>
-  <si>
-    <t>IOPS(randwrite_32m)</t>
-  </si>
-  <si>
-    <t>IOPS(randwrite_64m)</t>
-  </si>
-  <si>
-    <t>IOPS(randwrite_128m)</t>
+    <t>IOPS(read_1m)</t>
   </si>
   <si>
     <t>BW(randwrite_04k)</t>
@@ -92,61 +101,34 @@
     <t>BW(randwrite_08k)</t>
   </si>
   <si>
-    <t>BW(randwrite_16k)</t>
-  </si>
-  <si>
-    <t>BW(randwrite_32k)</t>
-  </si>
-  <si>
     <t>BW(randwrite_64k)</t>
   </si>
   <si>
-    <t>BW(randwrite_128k)</t>
+    <t>BW(randread_04k)</t>
   </si>
   <si>
-    <t>BW(randwrite_512k)</t>
+    <t>BW(randread_08k)</t>
   </si>
   <si>
-    <t>BW(randwrite_1m)</t>
+    <t>BW(randread_64k)</t>
   </si>
   <si>
-    <t>BW(randwrite_2m)</t>
+    <t>BW(write_64k)</t>
   </si>
   <si>
-    <t>BW(randwrite_4m)</t>
+    <t>BW(write_512k)</t>
   </si>
   <si>
-    <t>BW(randwrite_6m)</t>
+    <t>BW(write_1m)</t>
   </si>
   <si>
-    <t>BW(randwrite_8m)</t>
+    <t>BW(read_64k)</t>
   </si>
   <si>
-    <t>BW(randwrite_10m)</t>
+    <t>BW(read_512k)</t>
   </si>
   <si>
-    <t>BW(randwrite_12m)</t>
-  </si>
-  <si>
-    <t>BW(randwrite_16m)</t>
-  </si>
-  <si>
-    <t>BW(randwrite_20m)</t>
-  </si>
-  <si>
-    <t>BW(randwrite_24m)</t>
-  </si>
-  <si>
-    <t>BW(randwrite_28m)</t>
-  </si>
-  <si>
-    <t>BW(randwrite_32m)</t>
-  </si>
-  <si>
-    <t>BW(randwrite_64m)</t>
-  </si>
-  <si>
-    <t>BW(randwrite_128m)</t>
+    <t>BW(read_1m)</t>
   </si>
 </sst>
 </file>
@@ -260,7 +242,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -272,7 +290,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1965</c:v>
+                  <c:v>62600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,7 +344,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -302,7 +392,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1785</c:v>
+                  <c:v>42700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,7 +438,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_16k</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -320,7 +446,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,7 +494,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1632</c:v>
+                  <c:v>7179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,7 +540,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>randwrite_32k</c:v>
+            <c:v>randread_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -350,7 +548,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -362,7 +596,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1528</c:v>
+                  <c:v>79600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,7 +642,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>randread_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -380,7 +650,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -392,7 +698,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1670</c:v>
+                  <c:v>48700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,7 +744,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>randwrite_128k</c:v>
+            <c:v>randread_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -410,7 +752,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,7 +800,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1513</c:v>
+                  <c:v>8175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,7 +846,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>randwrite_512k</c:v>
+            <c:v>write_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -440,7 +854,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -452,7 +902,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>539</c:v>
+                  <c:v>7182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2985</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,7 +948,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>randwrite_1m</c:v>
+            <c:v>write_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -470,7 +956,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -482,7 +1004,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>309</c:v>
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,7 +1050,7 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>randwrite_2m</c:v>
+            <c:v>write_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -500,7 +1058,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -512,7 +1106,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,7 +1152,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>randwrite_4m</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -530,7 +1160,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -542,7 +1208,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>8070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,7 +1254,7 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>randwrite_6m</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -560,7 +1262,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -572,7 +1310,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,7 +1356,7 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>randwrite_8m</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -590,7 +1364,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -602,277 +1412,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>randwrite_10m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$14:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>randwrite_12m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$15:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>randwrite_16m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$16:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>randwrite_20m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$17:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:v>randwrite_24m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$18:$N$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:v>randwrite_28m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$19:$N$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:v>randwrite_32m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$20:$N$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:v>randwrite_64m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$21:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:v>randwrite_128m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$22:$N$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,7 +1573,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1009,7 +1588,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1965</c:v>
+                  <c:v>62600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,7 +1609,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1039,7 +1624,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1785</c:v>
+                  <c:v>42700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,7 +1637,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_16k</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1057,7 +1645,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1069,7 +1660,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1632</c:v>
+                  <c:v>7179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1673,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>randwrite_32k</c:v>
+            <c:v>randread_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1087,7 +1681,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1099,7 +1696,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1528</c:v>
+                  <c:v>79600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1709,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>randread_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1117,7 +1717,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,7 +1732,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1670</c:v>
+                  <c:v>48700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1745,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>randwrite_128k</c:v>
+            <c:v>randread_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1147,7 +1753,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1159,7 +1768,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1513</c:v>
+                  <c:v>8175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,7 +1781,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>randwrite_512k</c:v>
+            <c:v>write_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1177,7 +1789,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1189,7 +1804,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>539</c:v>
+                  <c:v>7182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,7 +1817,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>randwrite_1m</c:v>
+            <c:v>write_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1207,7 +1825,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1219,7 +1840,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>309</c:v>
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,7 +1853,7 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>randwrite_2m</c:v>
+            <c:v>write_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1237,7 +1861,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1249,7 +1876,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,7 +1889,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>randwrite_4m</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1267,7 +1897,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1279,7 +1912,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>8070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +1925,7 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>randwrite_6m</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1297,7 +1933,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1309,7 +1948,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,7 +1961,7 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>randwrite_8m</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1327,7 +1969,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1339,277 +1984,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>randwrite_10m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$14:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>randwrite_12m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$15:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>randwrite_16m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$16:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>randwrite_20m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$17:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:v>randwrite_24m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$18:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:v>randwrite_28m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$19:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:v>randwrite_32m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$20:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:v>randwrite_64m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$21:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:v>randwrite_128m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>IOPS!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$B$22:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,13 +2107,45 @@
             <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1743,6 +2153,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>809</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1754,13 +2197,45 @@
             <c:v>randwrite_08k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1768,6 +2243,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>705</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1776,16 +2284,48 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_16k</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1793,6 +2333,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1801,16 +2374,48 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>randwrite_32k</c:v>
+            <c:v>randread_04k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1818,6 +2423,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1826,16 +2464,48 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>randread_08k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1843,6 +2513,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>795</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1851,16 +2554,48 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>randwrite_128k</c:v>
+            <c:v>randread_64k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1868,6 +2603,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>628</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1876,16 +2644,48 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>randwrite_512k</c:v>
+            <c:v>write_64k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1893,6 +2693,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3107</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1901,16 +2734,48 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>randwrite_1m</c:v>
+            <c:v>write_512k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1918,6 +2783,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>406</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1926,16 +2824,48 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>randwrite_2m</c:v>
+            <c:v>write_1m</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1943,6 +2873,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1951,16 +2914,48 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>randwrite_4m</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1968,6 +2963,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3259</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1976,16 +3004,48 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>randwrite_6m</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1993,6 +3053,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>407</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2001,16 +3094,48 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>randwrite_8m</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2018,231 +3143,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>randwrite_10m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$14:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>randwrite_12m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$15:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>randwrite_16m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$16:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>randwrite_20m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$17:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:v>randwrite_24m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$18:$N$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:v>randwrite_28m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$19:$N$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:v>randwrite_32m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$20:$N$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:v>randwrite_64m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$21:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:v>randwrite_128m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>IOPS!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IOPS!$D$22:$N$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2274,7 +3207,6 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50030002"/>
         <c:crosses val="autoZero"/>
@@ -2367,7 +3299,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2379,7 +3347,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7.86</c:v>
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.088</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +3401,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2409,7 +3449,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>13.9</c:v>
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +3495,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_16k</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2427,7 +3503,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2439,7 +3551,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,7 +3597,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>randwrite_32k</c:v>
+            <c:v>randread_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2457,7 +3605,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2469,7 +3653,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>47.8</c:v>
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.108</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,7 +3699,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>randread_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2487,7 +3707,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2499,7 +3755,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +3801,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>randwrite_128k</c:v>
+            <c:v>randread_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2517,7 +3809,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2529,7 +3857,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>189</c:v>
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2539,7 +3903,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>randwrite_512k</c:v>
+            <c:v>write_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2547,7 +3911,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2559,7 +3959,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,7 +4005,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>randwrite_1m</c:v>
+            <c:v>write_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2577,7 +4013,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,7 +4061,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>309</c:v>
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,7 +4107,7 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>randwrite_2m</c:v>
+            <c:v>write_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2607,7 +4115,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2619,7 +4163,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>339</c:v>
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,7 +4209,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>randwrite_4m</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2637,7 +4217,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2649,7 +4265,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>412</c:v>
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,7 +4311,7 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>randwrite_6m</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2667,7 +4319,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2679,7 +4367,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>367</c:v>
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,7 +4413,7 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>randwrite_8m</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -2697,7 +4421,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sdn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2709,277 +4469,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>440</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>randwrite_10m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$14:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>randwrite_12m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$15:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>450</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>randwrite_16m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$16:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>randwrite_20m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$17:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>371</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:v>randwrite_24m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$18:$N$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>380</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:v>randwrite_28m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$19:$N$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:v>randwrite_32m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$20:$N$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>254</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:v>randwrite_64m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$21:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:v>randwrite_128m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$22:$N$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,7 +4630,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3116,7 +4645,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.86</c:v>
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,7 +4666,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3146,7 +4681,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.9</c:v>
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3156,7 +4694,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_16k</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3164,7 +4702,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3176,7 +4717,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,7 +4730,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>randwrite_32k</c:v>
+            <c:v>randread_04k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3194,7 +4738,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3206,7 +4753,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>47.8</c:v>
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,7 +4766,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>randread_08k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3224,7 +4774,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3236,7 +4789,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3246,7 +4802,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>randwrite_128k</c:v>
+            <c:v>randread_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3254,7 +4810,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3266,7 +4825,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>189</c:v>
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3276,7 +4838,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>randwrite_512k</c:v>
+            <c:v>write_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3284,7 +4846,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3296,7 +4861,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,7 +4874,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>randwrite_1m</c:v>
+            <c:v>write_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3314,7 +4882,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3326,7 +4897,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>309</c:v>
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,7 +4910,7 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>randwrite_2m</c:v>
+            <c:v>write_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3344,7 +4918,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3356,7 +4933,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>339</c:v>
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,7 +4946,7 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>randwrite_4m</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3374,7 +4954,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3386,7 +4969,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>412</c:v>
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3396,7 +4982,7 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>randwrite_6m</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3404,7 +4990,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3416,7 +5005,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>367</c:v>
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,7 +5018,7 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>randwrite_8m</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -3434,7 +5026,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
+                  <c:v>sda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sdb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3446,277 +5041,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>440</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>randwrite_10m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$14:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>randwrite_12m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$15:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>450</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>randwrite_16m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$16:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>randwrite_20m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$17:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>371</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:v>randwrite_24m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$18:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>380</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:v>randwrite_28m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$19:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:v>randwrite_32m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$20:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>254</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:v>randwrite_64m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$21:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:v>randwrite_128m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>BW!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ceph_log</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$B$22:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3836,13 +5164,45 @@
             <c:v>randwrite_04k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3850,6 +5210,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.393</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.237</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3861,13 +5254,45 @@
             <c:v>randwrite_08k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3875,6 +5300,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.643</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3883,16 +5341,48 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>randwrite_16k</c:v>
+            <c:v>randwrite_64k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3900,6 +5390,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3908,16 +5431,48 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>randwrite_32k</c:v>
+            <c:v>randread_04k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3925,6 +5480,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.147</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3933,16 +5521,48 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>randwrite_64k</c:v>
+            <c:v>randread_08k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3950,6 +5570,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.326</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.366</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3958,16 +5611,48 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>randwrite_128k</c:v>
+            <c:v>randread_64k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3975,6 +5660,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3983,16 +5701,48 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>randwrite_512k</c:v>
+            <c:v>write_64k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4000,6 +5750,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4008,16 +5791,48 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>randwrite_1m</c:v>
+            <c:v>write_512k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4025,6 +5840,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4033,16 +5881,48 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>randwrite_2m</c:v>
+            <c:v>write_1m</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4050,6 +5930,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>197</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4058,16 +5971,48 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>randwrite_4m</c:v>
+            <c:v>read_64k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4075,6 +6020,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>204</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4083,16 +6061,48 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>randwrite_6m</c:v>
+            <c:v>read_512k</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4100,6 +6110,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>204</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4108,16 +6151,48 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>randwrite_8m</c:v>
+            <c:v>read_1m</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>sdd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sde</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sdf</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sdi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sdj</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sdk</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sdl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sdm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sdn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4125,231 +6200,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>randwrite_10m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$14:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>randwrite_12m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$15:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>randwrite_16m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$16:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>randwrite_20m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$17:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:v>randwrite_24m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$18:$N$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:v>randwrite_28m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$19:$N$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:v>randwrite_32m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$20:$N$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:v>randwrite_64m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$21:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:v>randwrite_128m</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>BW!$D$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BW!$D$22:$N$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>204</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4381,7 +6264,6 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50060002"/>
         <c:crosses val="autoZero"/>
@@ -4441,13 +6323,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4471,13 +6353,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4501,13 +6383,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4536,13 +6418,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4566,13 +6448,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4596,13 +6478,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4910,186 +6792,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>1965</v>
+        <v>62600</v>
+      </c>
+      <c r="C2" s="3">
+        <v>62500</v>
+      </c>
+      <c r="D2" s="3">
+        <v>529</v>
+      </c>
+      <c r="E2" s="3">
+        <v>923</v>
+      </c>
+      <c r="F2" s="3">
+        <v>745</v>
+      </c>
+      <c r="G2" s="3">
+        <v>809</v>
+      </c>
+      <c r="H2" s="3">
+        <v>848</v>
+      </c>
+      <c r="I2" s="3">
+        <v>752</v>
+      </c>
+      <c r="J2" s="3">
+        <v>756</v>
+      </c>
+      <c r="K2" s="3">
+        <v>706</v>
+      </c>
+      <c r="L2" s="3">
+        <v>771</v>
+      </c>
+      <c r="M2" s="3">
+        <v>755</v>
+      </c>
+      <c r="N2" s="3">
+        <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>1785</v>
+        <v>42700</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42700</v>
+      </c>
+      <c r="D3" s="3">
+        <v>466</v>
+      </c>
+      <c r="E3" s="3">
+        <v>707</v>
+      </c>
+      <c r="F3" s="3">
+        <v>631</v>
+      </c>
+      <c r="G3" s="3">
+        <v>684</v>
+      </c>
+      <c r="H3" s="3">
+        <v>752</v>
+      </c>
+      <c r="I3" s="3">
+        <v>618</v>
+      </c>
+      <c r="J3" s="3">
+        <v>620</v>
+      </c>
+      <c r="K3" s="3">
+        <v>560</v>
+      </c>
+      <c r="L3" s="3">
+        <v>619</v>
+      </c>
+      <c r="M3" s="3">
+        <v>584</v>
+      </c>
+      <c r="N3" s="3">
+        <v>705</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>1632</v>
+        <v>7179</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7281</v>
+      </c>
+      <c r="D4" s="3">
+        <v>520</v>
+      </c>
+      <c r="E4" s="3">
+        <v>620</v>
+      </c>
+      <c r="F4" s="3">
+        <v>563</v>
+      </c>
+      <c r="G4" s="3">
+        <v>635</v>
+      </c>
+      <c r="H4" s="3">
+        <v>657</v>
+      </c>
+      <c r="I4" s="3">
+        <v>552</v>
+      </c>
+      <c r="J4" s="3">
+        <v>591</v>
+      </c>
+      <c r="K4" s="3">
+        <v>524</v>
+      </c>
+      <c r="L4" s="3">
+        <v>578</v>
+      </c>
+      <c r="M4" s="3">
+        <v>528</v>
+      </c>
+      <c r="N4" s="3">
+        <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>1528</v>
+        <v>79600</v>
+      </c>
+      <c r="C5" s="3">
+        <v>79700</v>
+      </c>
+      <c r="D5" s="3">
+        <v>690</v>
+      </c>
+      <c r="E5" s="3">
+        <v>550</v>
+      </c>
+      <c r="F5" s="3">
+        <v>531</v>
+      </c>
+      <c r="G5" s="3">
+        <v>527</v>
+      </c>
+      <c r="H5" s="3">
+        <v>541</v>
+      </c>
+      <c r="I5" s="3">
+        <v>537</v>
+      </c>
+      <c r="J5" s="3">
+        <v>537</v>
+      </c>
+      <c r="K5" s="3">
+        <v>526</v>
+      </c>
+      <c r="L5" s="3">
+        <v>535</v>
+      </c>
+      <c r="M5" s="3">
+        <v>533</v>
+      </c>
+      <c r="N5" s="3">
+        <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
-        <v>1670</v>
+        <v>48700</v>
+      </c>
+      <c r="C6" s="3">
+        <v>48800</v>
+      </c>
+      <c r="D6" s="3">
+        <v>906</v>
+      </c>
+      <c r="E6" s="3">
+        <v>853</v>
+      </c>
+      <c r="F6" s="3">
+        <v>782</v>
+      </c>
+      <c r="G6" s="3">
+        <v>800</v>
+      </c>
+      <c r="H6" s="3">
+        <v>817</v>
+      </c>
+      <c r="I6" s="3">
+        <v>787</v>
+      </c>
+      <c r="J6" s="3">
+        <v>782</v>
+      </c>
+      <c r="K6" s="3">
+        <v>766</v>
+      </c>
+      <c r="L6" s="3">
+        <v>791</v>
+      </c>
+      <c r="M6" s="3">
+        <v>790</v>
+      </c>
+      <c r="N6" s="3">
+        <v>795</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>1513</v>
+        <v>8175</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8220</v>
+      </c>
+      <c r="D7" s="3">
+        <v>553</v>
+      </c>
+      <c r="E7" s="3">
+        <v>628</v>
+      </c>
+      <c r="F7" s="3">
+        <v>611</v>
+      </c>
+      <c r="G7" s="3">
+        <v>626</v>
+      </c>
+      <c r="H7" s="3">
+        <v>651</v>
+      </c>
+      <c r="I7" s="3">
+        <v>633</v>
+      </c>
+      <c r="J7" s="3">
+        <v>638</v>
+      </c>
+      <c r="K7" s="3">
+        <v>606</v>
+      </c>
+      <c r="L7" s="3">
+        <v>616</v>
+      </c>
+      <c r="M7" s="3">
+        <v>618</v>
+      </c>
+      <c r="N7" s="3">
+        <v>628</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
-        <v>539</v>
+        <v>7182</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7285</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3139</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2996</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3086</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3195</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3132</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3097</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2948</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3107</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2985</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3107</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>309</v>
+        <v>926</v>
+      </c>
+      <c r="C9" s="3">
+        <v>941</v>
+      </c>
+      <c r="D9" s="3">
+        <v>391</v>
+      </c>
+      <c r="E9" s="3">
+        <v>416</v>
+      </c>
+      <c r="F9" s="3">
+        <v>390</v>
+      </c>
+      <c r="G9" s="3">
+        <v>398</v>
+      </c>
+      <c r="H9" s="3">
+        <v>408</v>
+      </c>
+      <c r="I9" s="3">
+        <v>405</v>
+      </c>
+      <c r="J9" s="3">
+        <v>420</v>
+      </c>
+      <c r="K9" s="3">
+        <v>383</v>
+      </c>
+      <c r="L9" s="3">
+        <v>404</v>
+      </c>
+      <c r="M9" s="3">
+        <v>386</v>
+      </c>
+      <c r="N9" s="3">
+        <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
-        <v>169</v>
+        <v>462</v>
+      </c>
+      <c r="C10" s="3">
+        <v>472</v>
+      </c>
+      <c r="D10" s="3">
+        <v>193</v>
+      </c>
+      <c r="E10" s="3">
+        <v>207</v>
+      </c>
+      <c r="F10" s="3">
+        <v>199</v>
+      </c>
+      <c r="G10" s="3">
+        <v>199</v>
+      </c>
+      <c r="H10" s="3">
+        <v>195</v>
+      </c>
+      <c r="I10" s="3">
+        <v>197</v>
+      </c>
+      <c r="J10" s="3">
+        <v>208</v>
+      </c>
+      <c r="K10" s="3">
+        <v>191</v>
+      </c>
+      <c r="L10" s="3">
+        <v>202</v>
+      </c>
+      <c r="M10" s="3">
+        <v>190</v>
+      </c>
+      <c r="N10" s="3">
+        <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
-        <v>103</v>
+        <v>8070</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8074</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3189</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3341</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3198</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3223</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3332</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3321</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3369</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3123</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3297</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3215</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3259</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
-        <v>61</v>
+        <v>1058</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1059</v>
+      </c>
+      <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>421</v>
+      </c>
+      <c r="F12" s="3">
+        <v>401</v>
+      </c>
+      <c r="G12" s="3">
+        <v>406</v>
+      </c>
+      <c r="H12" s="3">
+        <v>418</v>
+      </c>
+      <c r="I12" s="3">
+        <v>417</v>
+      </c>
+      <c r="J12" s="3">
+        <v>418</v>
+      </c>
+      <c r="K12" s="3">
+        <v>394</v>
+      </c>
+      <c r="L12" s="3">
+        <v>414</v>
+      </c>
+      <c r="M12" s="3">
+        <v>402</v>
+      </c>
+      <c r="N12" s="3">
+        <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
+        <v>530</v>
+      </c>
+      <c r="C13" s="3">
+        <v>531</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>210</v>
+      </c>
+      <c r="F13" s="3">
+        <v>200</v>
+      </c>
+      <c r="G13" s="3">
+        <v>203</v>
+      </c>
+      <c r="H13" s="3">
+        <v>208</v>
+      </c>
+      <c r="I13" s="3">
+        <v>208</v>
+      </c>
+      <c r="J13" s="3">
+        <v>211</v>
+      </c>
+      <c r="K13" s="3">
+        <v>196</v>
+      </c>
+      <c r="L13" s="3">
+        <v>206</v>
+      </c>
+      <c r="M13" s="3">
+        <v>201</v>
+      </c>
+      <c r="N13" s="3">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5100,186 +7378,582 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
-        <v>7.86</v>
+        <v>244</v>
+      </c>
+      <c r="C2" s="3">
+        <v>244</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.119</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3.693</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.984</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.236</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.393</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3.008</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.026</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2.828</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3.088</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3.237</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
-        <v>13.9</v>
+        <v>334</v>
+      </c>
+      <c r="C3" s="3">
+        <v>334</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.735</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.661</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.049</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5.48</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.021</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.948</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.968</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4.485</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4.957</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5.643</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
-        <v>25.5</v>
+        <v>449</v>
+      </c>
+      <c r="C4" s="3">
+        <v>455</v>
+      </c>
+      <c r="D4" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>38.8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>35.2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>39.7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>41.1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3">
+        <v>32.8</v>
+      </c>
+      <c r="L4" s="3">
+        <v>36.1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>33.1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>39.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
-        <v>47.8</v>
+        <v>311</v>
+      </c>
+      <c r="C5" s="3">
+        <v>311</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.762</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.201</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.125</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.111</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.167</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.148</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.108</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.141</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2.134</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.147</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
-        <v>104</v>
+        <v>381</v>
+      </c>
+      <c r="C6" s="3">
+        <v>381</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.249</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.831</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6.262</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.403</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.54</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6.298</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6.26</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.136</v>
+      </c>
+      <c r="L6" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6.326</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6.366</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3">
-        <v>189</v>
+        <v>511</v>
+      </c>
+      <c r="C7" s="3">
+        <v>514</v>
+      </c>
+      <c r="D7" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>39.3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>38.2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>39.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>40.7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>39.6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>39.9</v>
+      </c>
+      <c r="K7" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="L7" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>38.7</v>
+      </c>
+      <c r="N7" s="3">
+        <v>39.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
-        <v>270</v>
+        <v>449</v>
+      </c>
+      <c r="C8" s="3">
+        <v>455</v>
+      </c>
+      <c r="D8" s="3">
+        <v>188</v>
+      </c>
+      <c r="E8" s="3">
+        <v>196</v>
+      </c>
+      <c r="F8" s="3">
+        <v>187</v>
+      </c>
+      <c r="G8" s="3">
+        <v>193</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>196</v>
+      </c>
+      <c r="J8" s="3">
+        <v>194</v>
+      </c>
+      <c r="K8" s="3">
+        <v>184</v>
+      </c>
+      <c r="L8" s="3">
+        <v>194</v>
+      </c>
+      <c r="M8" s="3">
+        <v>187</v>
+      </c>
+      <c r="N8" s="3">
+        <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3">
-        <v>309</v>
+        <v>463</v>
+      </c>
+      <c r="C9" s="3">
+        <v>471</v>
+      </c>
+      <c r="D9" s="3">
+        <v>196</v>
+      </c>
+      <c r="E9" s="3">
+        <v>208</v>
+      </c>
+      <c r="F9" s="3">
+        <v>195</v>
+      </c>
+      <c r="G9" s="3">
+        <v>199</v>
+      </c>
+      <c r="H9" s="3">
+        <v>204</v>
+      </c>
+      <c r="I9" s="3">
+        <v>203</v>
+      </c>
+      <c r="J9" s="3">
+        <v>210</v>
+      </c>
+      <c r="K9" s="3">
+        <v>192</v>
+      </c>
+      <c r="L9" s="3">
+        <v>202</v>
+      </c>
+      <c r="M9" s="3">
+        <v>193</v>
+      </c>
+      <c r="N9" s="3">
+        <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
-        <v>339</v>
+        <v>462</v>
+      </c>
+      <c r="C10" s="3">
+        <v>473</v>
+      </c>
+      <c r="D10" s="3">
+        <v>193</v>
+      </c>
+      <c r="E10" s="3">
+        <v>208</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>199</v>
+      </c>
+      <c r="H10" s="3">
+        <v>195</v>
+      </c>
+      <c r="I10" s="3">
+        <v>198</v>
+      </c>
+      <c r="J10" s="3">
+        <v>209</v>
+      </c>
+      <c r="K10" s="3">
+        <v>191</v>
+      </c>
+      <c r="L10" s="3">
+        <v>202</v>
+      </c>
+      <c r="M10" s="3">
+        <v>190</v>
+      </c>
+      <c r="N10" s="3">
+        <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
-        <v>412</v>
+        <v>504</v>
+      </c>
+      <c r="C11" s="3">
+        <v>505</v>
+      </c>
+      <c r="D11" s="3">
+        <v>199</v>
+      </c>
+      <c r="E11" s="3">
+        <v>209</v>
+      </c>
+      <c r="F11" s="3">
+        <v>200</v>
+      </c>
+      <c r="G11" s="3">
+        <v>201</v>
+      </c>
+      <c r="H11" s="3">
+        <v>208</v>
+      </c>
+      <c r="I11" s="3">
+        <v>208</v>
+      </c>
+      <c r="J11" s="3">
+        <v>211</v>
+      </c>
+      <c r="K11" s="3">
+        <v>195</v>
+      </c>
+      <c r="L11" s="3">
+        <v>206</v>
+      </c>
+      <c r="M11" s="3">
+        <v>201</v>
+      </c>
+      <c r="N11" s="3">
+        <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
-        <v>367</v>
+        <v>529</v>
+      </c>
+      <c r="C12" s="3">
+        <v>530</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>211</v>
+      </c>
+      <c r="F12" s="3">
+        <v>201</v>
+      </c>
+      <c r="G12" s="3">
+        <v>203</v>
+      </c>
+      <c r="H12" s="3">
+        <v>209</v>
+      </c>
+      <c r="I12" s="3">
+        <v>209</v>
+      </c>
+      <c r="J12" s="3">
+        <v>209</v>
+      </c>
+      <c r="K12" s="3">
+        <v>197</v>
+      </c>
+      <c r="L12" s="3">
+        <v>207</v>
+      </c>
+      <c r="M12" s="3">
+        <v>201</v>
+      </c>
+      <c r="N12" s="3">
+        <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="3">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="3">
-        <v>256</v>
+        <v>531</v>
+      </c>
+      <c r="C13" s="3">
+        <v>531</v>
+      </c>
+      <c r="D13" s="3">
+        <v>201</v>
+      </c>
+      <c r="E13" s="3">
+        <v>210</v>
+      </c>
+      <c r="F13" s="3">
+        <v>200</v>
+      </c>
+      <c r="G13" s="3">
+        <v>203</v>
+      </c>
+      <c r="H13" s="3">
+        <v>209</v>
+      </c>
+      <c r="I13" s="3">
+        <v>209</v>
+      </c>
+      <c r="J13" s="3">
+        <v>211</v>
+      </c>
+      <c r="K13" s="3">
+        <v>197</v>
+      </c>
+      <c r="L13" s="3">
+        <v>207</v>
+      </c>
+      <c r="M13" s="3">
+        <v>201</v>
+      </c>
+      <c r="N13" s="3">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
